--- a/public/data/soil/soil_table_ghana.xlsx
+++ b/public/data/soil/soil_table_ghana.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1442,25 +1442,25 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>29939.7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19670.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>179.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>55.644</v>
+        <v>71.541</v>
       </c>
       <c r="I2" t="n">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.345</v>
+        <v>32.151</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1477,25 +1477,25 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>29857.8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6169.6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>72.564</v>
+        <v>87.415</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13.896</v>
+        <v>8.983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1512,28 +1512,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>8546.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22708.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>642.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9.937</v>
+        <v>11.766</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>37.441</v>
+        <v>38.868</v>
       </c>
       <c r="K4" t="n">
-        <v>0.971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1547,28 +1547,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>10781.4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14874.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>622.8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13.72</v>
+        <v>19.64</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>25.181</v>
+        <v>43.319</v>
       </c>
       <c r="K5" t="n">
-        <v>0.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1582,28 +1582,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>2752.6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25324.3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4525.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.493</v>
+        <v>5.446</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>58.577</v>
+        <v>47.499</v>
       </c>
       <c r="K6" t="n">
-        <v>8.502</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="7">
@@ -1617,28 +1617,28 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9458.6</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>12308.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.071</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.752</v>
+        <v>31.336</v>
       </c>
       <c r="K7" t="n">
-        <v>23.118</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="8">
@@ -1652,25 +1652,25 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>12092.4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7170.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>33.118</v>
+        <v>39.885</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>22.274</v>
+        <v>22.119</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1687,25 +1687,25 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>8337.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12715.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16.844</v>
+        <v>19.519</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25.749</v>
+        <v>26.256</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1722,25 +1722,25 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>196.7</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10654.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.684</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.849</v>
+        <v>54.252</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1757,25 +1757,25 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>22697.6</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6023.6</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.635</v>
+        <v>54.756</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.669</v>
+        <v>7.304</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9641.2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.542</v>
+        <v>7.646</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1827,25 +1827,25 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>802.6</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8441</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.16</v>
+        <v>10.266</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1862,28 +1862,28 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>3378</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>19939.6</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2325.4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.412</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>62.956</v>
+        <v>43.821</v>
       </c>
       <c r="K14" t="n">
-        <v>3.402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>1905.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25950.2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.567</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>49.46</v>
+        <v>40.733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1932,25 +1932,25 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>2585.2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14937.4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.681</v>
+        <v>5.307</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.471</v>
+        <v>32.745</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1967,25 +1967,25 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>12454.8</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>18012.4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.213</v>
+        <v>21.275</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.372</v>
+        <v>39.97</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>15420.4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6243.7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>34.429</v>
+        <v>30.193</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.574</v>
+        <v>8.229</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2037,25 +2037,25 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>7370</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>18211.1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.584</v>
+        <v>21.357</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>44.494</v>
+        <v>40.996</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2072,25 +2072,25 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>446.8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>11802.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.859</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.871</v>
+        <v>34.808</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2107,28 +2107,28 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>478.3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>27135.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>12278.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>49.986</v>
+        <v>60.086</v>
       </c>
       <c r="K21" t="n">
-        <v>18.999</v>
+        <v>10.182</v>
       </c>
     </row>
     <row r="22">
@@ -2142,25 +2142,25 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>10389.7</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28369.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>22.128</v>
+        <v>20.981</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.727</v>
+        <v>67.22</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>282.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>81.6</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>231.4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1186.6</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2247,25 +2247,25 @@
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>317.3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11599.8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1577.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>17.784</v>
+        <v>12.959</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2282,25 +2282,25 @@
         <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>40723.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>19704.9</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>76.825</v>
+        <v>84.394</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>41.617</v>
+        <v>39.448</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>1691.7</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7512.3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.397</v>
+        <v>6.47</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2352,25 +2352,25 @@
         <v>58</v>
       </c>
       <c r="D28" t="n">
-        <v>3801.1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13710</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.642</v>
+        <v>40.132</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2387,25 +2387,25 @@
         <v>59</v>
       </c>
       <c r="D29" t="n">
-        <v>1596.7</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>22051.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>42.705</v>
+        <v>63.585</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2422,25 +2422,25 @@
         <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>6461.9</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>13097</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11.759</v>
+        <v>7.216</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>30.987</v>
+        <v>39.16</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2457,25 +2457,25 @@
         <v>61</v>
       </c>
       <c r="D31" t="n">
-        <v>2007.7</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>14652.6</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>698.6</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.097</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.046</v>
+        <v>24.756</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2492,25 +2492,25 @@
         <v>62</v>
       </c>
       <c r="D32" t="n">
-        <v>3517.1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>15135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1183.1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.251</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>27.761</v>
+        <v>39.232</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23973.4</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>27779</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>30.421</v>
+        <v>38.286</v>
       </c>
       <c r="K33" t="n">
-        <v>38.222</v>
+        <v>31.781</v>
       </c>
     </row>
     <row r="34">
@@ -2562,25 +2562,25 @@
         <v>64</v>
       </c>
       <c r="D34" t="n">
-        <v>224.1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6988.7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>82.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>13.813</v>
+        <v>14.752</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>166.3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2632,16 +2632,16 @@
         <v>66</v>
       </c>
       <c r="D36" t="n">
-        <v>62.3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4259.1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1137.1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>10.489</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2673,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3448.9</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1580.8</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>68</v>
       </c>
       <c r="D38" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>21773.3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7612.2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.788</v>
+        <v>72.024</v>
       </c>
       <c r="K38" t="n">
-        <v>13.164</v>
+        <v>4.814</v>
       </c>
     </row>
     <row r="39">
@@ -2737,25 +2737,25 @@
         <v>69</v>
       </c>
       <c r="D39" t="n">
-        <v>1233.9</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4074.7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.205</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.202</v>
+        <v>11.122</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>70</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2975.9</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.118</v>
+        <v>6.621</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2807,28 +2807,28 @@
         <v>71</v>
       </c>
       <c r="D41" t="n">
-        <v>2153.1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>20331.5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>487.9</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.63</v>
+        <v>4.891</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.709</v>
+        <v>35.748</v>
       </c>
       <c r="K41" t="n">
-        <v>0.197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2842,28 +2842,28 @@
         <v>72</v>
       </c>
       <c r="D42" t="n">
-        <v>461.7</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>9802</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>25804.2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.606</v>
+        <v>23.914</v>
       </c>
       <c r="K42" t="n">
-        <v>29.409</v>
+        <v>26.645</v>
       </c>
     </row>
     <row r="43">
@@ -2877,16 +2877,16 @@
         <v>73</v>
       </c>
       <c r="D43" t="n">
-        <v>315.6</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>584.8</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>883.2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>78.2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         <v>75</v>
       </c>
       <c r="D45" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>25185.4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>73463.9</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.932</v>
+        <v>5.947</v>
       </c>
       <c r="K45" t="n">
-        <v>42.381</v>
+        <v>51.354</v>
       </c>
     </row>
     <row r="46">
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28132.3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>26642.4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.515</v>
+        <v>52.268</v>
       </c>
       <c r="K46" t="n">
-        <v>23.569</v>
+        <v>18.753</v>
       </c>
     </row>
     <row r="47">
@@ -3017,25 +3017,25 @@
         <v>77</v>
       </c>
       <c r="D47" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>9400.4</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>19.574</v>
+        <v>14.976</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3052,28 +3052,28 @@
         <v>78</v>
       </c>
       <c r="D48" t="n">
-        <v>338.3</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>19382.1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2305.3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.392</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>29.702</v>
+        <v>33.087</v>
       </c>
       <c r="K48" t="n">
-        <v>1.933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3087,13 +3087,13 @@
         <v>79</v>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>18181.9</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>36.31</v>
+        <v>31.177</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>80</v>
       </c>
       <c r="D50" t="n">
-        <v>132.1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>551.8</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3163,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>5945.7</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>81070.2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>7.643</v>
+        <v>6.362</v>
       </c>
       <c r="K51" t="n">
-        <v>113.43</v>
+        <v>113.849</v>
       </c>
     </row>
     <row r="52">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>20983.6</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>101418.6</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>21.331</v>
+        <v>27.269</v>
       </c>
       <c r="K52" t="n">
-        <v>69.752</v>
+        <v>64.62</v>
       </c>
     </row>
     <row r="53">
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>41748.4</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>7620.8</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>59.279</v>
+        <v>71.309</v>
       </c>
       <c r="K53" t="n">
-        <v>11.959</v>
+        <v>7.597</v>
       </c>
     </row>
     <row r="54">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>36205</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>7217.3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>64.889</v>
+        <v>76.111</v>
       </c>
       <c r="K54" t="n">
-        <v>9.34</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="55">
@@ -3303,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>9521.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>28152.9</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>21.226</v>
+        <v>7.634</v>
       </c>
       <c r="K55" t="n">
-        <v>56.327</v>
+        <v>66.347</v>
       </c>
     </row>
     <row r="56">
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>50238.5</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>71.227</v>
+        <v>65.051</v>
       </c>
     </row>
     <row r="57">
@@ -3367,28 +3367,28 @@
         <v>88</v>
       </c>
       <c r="D57" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>22092.6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>24188.1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>23.529</v>
+        <v>37.651</v>
       </c>
       <c r="K57" t="n">
-        <v>34.368</v>
+        <v>22.897</v>
       </c>
     </row>
     <row r="58">
@@ -3405,25 +3405,25 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>114.2</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>8569.5</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>64450.9</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>6.899</v>
+        <v>6.839</v>
       </c>
       <c r="K58" t="n">
-        <v>62.874</v>
+        <v>65.439</v>
       </c>
     </row>
     <row r="59">
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>118.9</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1721</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>76457</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.699</v>
+        <v>1.246</v>
       </c>
       <c r="K59" t="n">
-        <v>66.23</v>
+        <v>66.4</v>
       </c>
     </row>
     <row r="60">
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>16818.2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>10398.2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>42.597</v>
+        <v>41.889</v>
       </c>
       <c r="K60" t="n">
-        <v>24.047</v>
+        <v>19.134</v>
       </c>
     </row>
     <row r="61">
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>14263.7</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2679.6</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>32.012</v>
+        <v>35.836</v>
       </c>
       <c r="K61" t="n">
-        <v>3.921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3542,28 +3542,28 @@
         <v>94</v>
       </c>
       <c r="D62" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>12248.2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>37871.7</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>10.469</v>
+        <v>15.029</v>
       </c>
       <c r="K62" t="n">
-        <v>28.463</v>
+        <v>25.287</v>
       </c>
     </row>
     <row r="63">
@@ -3577,28 +3577,28 @@
         <v>95</v>
       </c>
       <c r="D63" t="n">
-        <v>58.8</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>9788.5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>9566.9</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>20.343</v>
+        <v>12.335</v>
       </c>
       <c r="K63" t="n">
-        <v>20.98</v>
+        <v>12.972</v>
       </c>
     </row>
     <row r="64">
@@ -3618,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>15543.1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2042.9</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>35.183</v>
+        <v>45.588</v>
       </c>
       <c r="K64" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3647,28 +3647,28 @@
         <v>97</v>
       </c>
       <c r="D65" t="n">
-        <v>7933.8</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>34665.7</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2040.2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>11.996</v>
+        <v>17.82</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>88.984</v>
+        <v>69.704</v>
       </c>
       <c r="K65" t="n">
-        <v>2.078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3682,25 +3682,25 @@
         <v>98</v>
       </c>
       <c r="D66" t="n">
-        <v>232.7</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>23457.6</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>248.9</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>49.041</v>
+        <v>37.125</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3717,25 +3717,25 @@
         <v>99</v>
       </c>
       <c r="D67" t="n">
-        <v>5924.6</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>10962.4</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>11.402</v>
+        <v>13.65</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>28.096</v>
+        <v>17.421</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3752,16 +3752,16 @@
         <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>148.4</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1720.7</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>34135.8</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.494</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>69.044</v>
+        <v>55.448</v>
       </c>
     </row>
     <row r="69">
@@ -3787,28 +3787,28 @@
         <v>101</v>
       </c>
       <c r="D69" t="n">
-        <v>716.2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>23027.3</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>7563.9</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.371</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>52.868</v>
+        <v>62.962</v>
       </c>
       <c r="K69" t="n">
-        <v>14.49</v>
+        <v>15.993</v>
       </c>
     </row>
     <row r="70">
@@ -3822,28 +3822,28 @@
         <v>102</v>
       </c>
       <c r="D70" t="n">
-        <v>1606.5</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>15751.7</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>3243.8</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.873</v>
+        <v>2.416</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>35.544</v>
+        <v>35.161</v>
       </c>
       <c r="K70" t="n">
-        <v>1.443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3857,28 +3857,28 @@
         <v>103</v>
       </c>
       <c r="D71" t="n">
-        <v>118.8</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>21784.6</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>19170.9</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>43.644</v>
+        <v>57.784</v>
       </c>
       <c r="K71" t="n">
-        <v>34.395</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="72">
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>6161.4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>54845.6</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4.83</v>
+        <v>4.871</v>
       </c>
       <c r="K72" t="n">
-        <v>63.219</v>
+        <v>71.413</v>
       </c>
     </row>
     <row r="73">
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>17545.4</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>24897.3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>24.917</v>
+        <v>31.913</v>
       </c>
       <c r="K73" t="n">
-        <v>43.235</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="74">
@@ -3962,25 +3962,25 @@
         <v>107</v>
       </c>
       <c r="D74" t="n">
-        <v>11714.7</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>8686.3</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>25.883</v>
+        <v>27.662</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>10.663</v>
+        <v>16.545</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3997,25 +3997,25 @@
         <v>108</v>
       </c>
       <c r="D75" t="n">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>14811.5</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2.085</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>36.349</v>
+        <v>48.509</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4032,25 +4032,25 @@
         <v>109</v>
       </c>
       <c r="D76" t="n">
-        <v>2802.2</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>14564.4</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>7.764</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>37.636</v>
+        <v>42.388</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4067,25 +4067,25 @@
         <v>110</v>
       </c>
       <c r="D77" t="n">
-        <v>5395.5</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>20807.2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>13.031</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>38.471</v>
+        <v>86.168</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4102,25 +4102,25 @@
         <v>111</v>
       </c>
       <c r="D78" t="n">
-        <v>15872.4</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>15953.2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>33.237</v>
+        <v>20.112</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>39.505</v>
+        <v>20.724</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>112</v>
       </c>
       <c r="D79" t="n">
-        <v>7473.9</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3064.1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>20.191</v>
+        <v>20.496</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4172,25 +4172,25 @@
         <v>113</v>
       </c>
       <c r="D80" t="n">
-        <v>19946.3</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>10518.5</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>55.023</v>
+        <v>38.826</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>26.812</v>
+        <v>22.033</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4207,25 +4207,25 @@
         <v>114</v>
       </c>
       <c r="D81" t="n">
-        <v>35557</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1443.3</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>88.471</v>
+        <v>112.25</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.533</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4242,16 +4242,16 @@
         <v>115</v>
       </c>
       <c r="D82" t="n">
-        <v>79.8</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1552.3</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>3347.3</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>2.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4277,16 +4277,16 @@
         <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>345.2</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>13881.9</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>724.2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>20.216</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -4312,19 +4312,19 @@
         <v>117</v>
       </c>
       <c r="D84" t="n">
-        <v>4029.4</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>2005.8</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>225.6</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.283</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4353,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>140.4</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>2830</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.586</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1.666</v>
+        <v>16.402</v>
       </c>
     </row>
     <row r="86">
@@ -4382,25 +4382,25 @@
         <v>119</v>
       </c>
       <c r="D86" t="n">
-        <v>1441.7</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>9571.3</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1.782</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>19.062</v>
+        <v>42.028</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1512.3</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2427.9</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3.859</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>6.505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4452,28 +4452,28 @@
         <v>121</v>
       </c>
       <c r="D88" t="n">
-        <v>328.3</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>13055.7</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>11576</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.528</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>15.9</v>
+        <v>27.386</v>
       </c>
       <c r="K88" t="n">
-        <v>15.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4487,28 +4487,28 @@
         <v>122</v>
       </c>
       <c r="D89" t="n">
-        <v>1462.5</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>14148</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>195.4</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>4.131</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>35.156</v>
+        <v>16.402</v>
       </c>
       <c r="K89" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4522,25 +4522,25 @@
         <v>123</v>
       </c>
       <c r="D90" t="n">
-        <v>8815.2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>8064.4</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>249.1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>16.906</v>
+        <v>34.307</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>12.952</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4557,25 +4557,25 @@
         <v>124</v>
       </c>
       <c r="D91" t="n">
-        <v>2142.6</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>11534.8</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>5.381</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>15.086</v>
+        <v>15.712</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4592,25 +4592,25 @@
         <v>125</v>
       </c>
       <c r="D92" t="n">
-        <v>26633.3</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2740.1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>50.293</v>
+        <v>64.377</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>5.725</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -4627,25 +4627,25 @@
         <v>126</v>
       </c>
       <c r="D93" t="n">
-        <v>20078.7</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1740.6</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>32.729</v>
+        <v>53.047</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.567</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4662,25 +4662,25 @@
         <v>127</v>
       </c>
       <c r="D94" t="n">
-        <v>9706.4</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>8589.4</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>85.3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>21.195</v>
+        <v>23.109</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>19.571</v>
+        <v>15.806</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4697,25 +4697,25 @@
         <v>128</v>
       </c>
       <c r="D95" t="n">
-        <v>15585.3</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>7973.2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>31.396</v>
+        <v>61.318</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>19.245</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4732,25 +4732,25 @@
         <v>130</v>
       </c>
       <c r="D96" t="n">
-        <v>515.3</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>6845.1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1.459</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>11.4</v>
+        <v>13.665</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4767,25 +4767,25 @@
         <v>131</v>
       </c>
       <c r="D97" t="n">
-        <v>1224.5</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>12277.1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>6.152</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>33.953</v>
+        <v>26.683</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4802,25 +4802,25 @@
         <v>132</v>
       </c>
       <c r="D98" t="n">
-        <v>10911.1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>6284.5</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>26.664</v>
+        <v>61.788</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>21.574</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4837,28 +4837,28 @@
         <v>133</v>
       </c>
       <c r="D99" t="n">
-        <v>68.1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>12527.6</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>3868.4</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>26.147</v>
+        <v>16.022</v>
       </c>
       <c r="K99" t="n">
-        <v>9.417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4872,28 +4872,28 @@
         <v>134</v>
       </c>
       <c r="D100" t="n">
-        <v>376.4</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>10681.7</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1327.4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>21.813</v>
+        <v>24.865</v>
       </c>
       <c r="K100" t="n">
-        <v>0.831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4907,25 +4907,25 @@
         <v>135</v>
       </c>
       <c r="D101" t="n">
-        <v>11639.4</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>14214.2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>27.1</v>
+        <v>12.721</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>42.907</v>
+        <v>46.135</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4942,25 +4942,25 @@
         <v>136</v>
       </c>
       <c r="D102" t="n">
-        <v>13763.4</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4847</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>42.16</v>
+        <v>58.994</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>13.472</v>
+        <v>10.892</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>4358.9</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>18092.9</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>9.454</v>
+        <v>5.742</v>
       </c>
       <c r="K103" t="n">
-        <v>35.361</v>
+        <v>33.583</v>
       </c>
     </row>
     <row r="104">
@@ -5012,25 +5012,25 @@
         <v>138</v>
       </c>
       <c r="D104" t="n">
-        <v>13575</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>5147.8</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>33.813</v>
+        <v>47.037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>13.646</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -5047,25 +5047,25 @@
         <v>139</v>
       </c>
       <c r="D105" t="n">
-        <v>12307</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>5577.3</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>34.96</v>
+        <v>50.798</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>17.669</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -5082,25 +5082,25 @@
         <v>140</v>
       </c>
       <c r="D106" t="n">
-        <v>4661.6</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>16523.4</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>13.276</v>
+        <v>9.627</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>44.545</v>
+        <v>44.74</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -5117,25 +5117,25 @@
         <v>141</v>
       </c>
       <c r="D107" t="n">
-        <v>4736.7</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>517.1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>8.979</v>
+        <v>12.15</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -5152,25 +5152,25 @@
         <v>142</v>
       </c>
       <c r="D108" t="n">
-        <v>12897.2</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>9109.5</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>31.036</v>
+        <v>29.079</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>24.122</v>
+        <v>9.667</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -5187,25 +5187,25 @@
         <v>143</v>
       </c>
       <c r="D109" t="n">
-        <v>8544.9</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>5080.2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>19.137</v>
+        <v>34.203</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>14.905</v>
+        <v>13.853</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -5222,28 +5222,28 @@
         <v>144</v>
       </c>
       <c r="D110" t="n">
-        <v>16899.8</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1722.5</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>506.1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>40.733</v>
+        <v>32.473</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1.555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5257,28 +5257,28 @@
         <v>145</v>
       </c>
       <c r="D111" t="n">
-        <v>356.7</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>23235</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1899.6</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>55.437</v>
+        <v>63.134</v>
       </c>
       <c r="K111" t="n">
-        <v>4.116</v>
+        <v>5.683</v>
       </c>
     </row>
     <row r="112">
@@ -5292,25 +5292,25 @@
         <v>146</v>
       </c>
       <c r="D112" t="n">
-        <v>1869.1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>9981.5</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>3.346</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>22.675</v>
+        <v>18.389</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5327,28 +5327,28 @@
         <v>147</v>
       </c>
       <c r="D113" t="n">
-        <v>20947.1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>9269.1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>174.7</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>53.091</v>
+        <v>86.415</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>21.691</v>
+        <v>6.611</v>
       </c>
       <c r="K113" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>6915.4</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>35470.8</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>16.375</v>
+        <v>2.292</v>
       </c>
       <c r="K114" t="n">
-        <v>81.716</v>
+        <v>108.359</v>
       </c>
     </row>
     <row r="115">
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>29958</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>50632.2</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>54.982</v>
+        <v>47.797</v>
       </c>
       <c r="K115" t="n">
-        <v>100.215</v>
+        <v>116.715</v>
       </c>
     </row>
     <row r="116">
@@ -5432,28 +5432,28 @@
         <v>150</v>
       </c>
       <c r="D116" t="n">
-        <v>2196.3</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>37.3</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>16803.1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>6149.4</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>3.839</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>36.729</v>
+        <v>37.541</v>
       </c>
       <c r="K116" t="n">
-        <v>10.504</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="117">
@@ -5467,28 +5467,28 @@
         <v>151</v>
       </c>
       <c r="D117" t="n">
-        <v>4048.5</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>19949.9</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>3375.7</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>4.964</v>
+        <v>4.889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>36.586</v>
+        <v>30.27</v>
       </c>
       <c r="K117" t="n">
-        <v>8.578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5502,25 +5502,25 @@
         <v>152</v>
       </c>
       <c r="D118" t="n">
-        <v>10496</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>4483.5</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>25.917</v>
+        <v>50.027</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>12.609</v>
+        <v>10.621</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5543,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>5362.1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>10586.3</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>8.333</v>
+        <v>10.118</v>
       </c>
       <c r="K119" t="n">
-        <v>16.725</v>
+        <v>18.413</v>
       </c>
     </row>
     <row r="120">
@@ -5572,13 +5572,13 @@
         <v>154</v>
       </c>
       <c r="D120" t="n">
-        <v>242.5</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>5540.7</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3.877</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5607,13 +5607,13 @@
         <v>155</v>
       </c>
       <c r="D121" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>2604.9</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5642,25 +5642,25 @@
         <v>156</v>
       </c>
       <c r="D122" t="n">
-        <v>760.5</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>8036.7</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1.472</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>16.542</v>
+        <v>28.583</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5677,28 +5677,28 @@
         <v>157</v>
       </c>
       <c r="D123" t="n">
-        <v>118.8</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>13483</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>2251.7</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>33.293</v>
+        <v>37.413</v>
       </c>
       <c r="K123" t="n">
-        <v>5.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5712,25 +5712,25 @@
         <v>158</v>
       </c>
       <c r="D124" t="n">
-        <v>515.1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>14409.9</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.918</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>38.946</v>
+        <v>47.658</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>24364.4</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>3594.7</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>51.65</v>
+        <v>65.125</v>
       </c>
       <c r="K125" t="n">
-        <v>6.544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5782,25 +5782,25 @@
         <v>160</v>
       </c>
       <c r="D126" t="n">
-        <v>3192.4</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>14012.6</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>6.704</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>32.369</v>
+        <v>63.091</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5817,25 +5817,25 @@
         <v>161</v>
       </c>
       <c r="D127" t="n">
-        <v>13246.8</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>6959.7</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>36.93</v>
+        <v>62.113</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>21.94</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -5852,28 +5852,28 @@
         <v>162</v>
       </c>
       <c r="D128" t="n">
-        <v>148.9</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>17773.3</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>6013.4</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>37.441</v>
+        <v>36.225</v>
       </c>
       <c r="K128" t="n">
-        <v>11.212</v>
+        <v>12.045</v>
       </c>
     </row>
     <row r="129">
@@ -6033,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>475.2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>7569.7</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>14.162</v>
+        <v>12.302</v>
       </c>
     </row>
     <row r="134">
@@ -6068,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>97.6</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>6305.2</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>14.749</v>
+        <v>27.579</v>
       </c>
     </row>
     <row r="135">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1746.8</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>395.7</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6278,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>164.1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>53.3</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6313,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>227.2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>428.4</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6348,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>468.2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1982.3</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6383,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>3258.9</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1417</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.274</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6412,16 +6412,16 @@
         <v>179</v>
       </c>
       <c r="D144" t="n">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>9374.5</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1072.3</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>2.603</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6447,16 +6447,16 @@
         <v>180</v>
       </c>
       <c r="D145" t="n">
-        <v>67.8</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>7231</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1321.6</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>3.774</v>
+        <v>18.206</v>
       </c>
       <c r="K145" t="n">
-        <v>0.561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6523,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>189.1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>9575.5</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>3.572</v>
+        <v>26.923</v>
       </c>
     </row>
     <row r="148">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>3236.6</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>129.8</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>222.6</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>10787</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0.552</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>16.883</v>
+        <v>42.231</v>
       </c>
     </row>
     <row r="153">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>53.3</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6768,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>372.2</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>32871.1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>47.228</v>
+        <v>49.213</v>
       </c>
     </row>
     <row r="155">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>759.9</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>467.9</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>3219.9</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6908,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>215.9</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>36349.1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>76.858</v>
+        <v>60.658</v>
       </c>
     </row>
     <row r="159">
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>65740.9</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>50.387</v>
+        <v>56.52</v>
       </c>
     </row>
     <row r="160">
@@ -6978,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>73478.8</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.263</v>
+        <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>110.427</v>
+        <v>128.653</v>
       </c>
     </row>
     <row r="161">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>63898.8</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>54.218</v>
+        <v>53.129</v>
       </c>
     </row>
     <row r="162">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>91724.1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>122.056</v>
+        <v>125.511</v>
       </c>
     </row>
     <row r="163">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>25050.5</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>39.022</v>
+        <v>43.111</v>
       </c>
     </row>
     <row r="164">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>124740</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>98.561</v>
+        <v>99.616</v>
       </c>
     </row>
     <row r="165">
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>126460.3</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>107.885</v>
+        <v>130.797</v>
       </c>
     </row>
     <row r="166">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>44996.7</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>70.189</v>
+        <v>75.612</v>
       </c>
     </row>
     <row r="167">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>56526.5</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>36.339</v>
+        <v>48.917</v>
       </c>
     </row>
     <row r="168">
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>117141</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>125.511</v>
+        <v>127.743</v>
       </c>
     </row>
     <row r="169">
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>26408.6</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>45.533</v>
+        <v>38.342</v>
       </c>
     </row>
     <row r="170">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>102728.8</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>120.771</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="171">
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>42.3</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>85864.7</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>162.383</v>
+        <v>164.582</v>
       </c>
     </row>
     <row r="172">
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>87174.7</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>65.002</v>
+        <v>74.452</v>
       </c>
     </row>
     <row r="173">
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>13742.3</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>11.353</v>
+        <v>13.717</v>
       </c>
     </row>
     <row r="174">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>61034.2</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>93.493</v>
+        <v>114.071</v>
       </c>
     </row>
     <row r="175">
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>33395.2</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>52.628</v>
+        <v>63.427</v>
       </c>
     </row>
     <row r="176">
@@ -7538,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1911.8</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>52105.4</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.948</v>
+        <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>55.19</v>
+        <v>40.261</v>
       </c>
     </row>
     <row r="177">
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>59898.1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>37.155</v>
+        <v>34.864</v>
       </c>
     </row>
     <row r="178">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>71559.8</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>90.034</v>
+        <v>101.116</v>
       </c>
     </row>
     <row r="179">
@@ -7643,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>54227</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>85.52</v>
+        <v>96.954</v>
       </c>
     </row>
     <row r="180">
@@ -7672,28 +7672,28 @@
         <v>218</v>
       </c>
       <c r="D180" t="n">
-        <v>5458.2</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>800.9</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>17241.4</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>4905.4</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>15.87</v>
+        <v>22.911</v>
       </c>
       <c r="I180" t="n">
-        <v>2.072</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>33.905</v>
+        <v>37.886</v>
       </c>
       <c r="K180" t="n">
-        <v>8.373</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="181">
@@ -7707,28 +7707,28 @@
         <v>219</v>
       </c>
       <c r="D181" t="n">
-        <v>8161.5</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>10953.3</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>562.6</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>12.558</v>
+        <v>11.621</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>18.574</v>
+        <v>16.373</v>
       </c>
       <c r="K181" t="n">
-        <v>0.436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7742,25 +7742,25 @@
         <v>220</v>
       </c>
       <c r="D182" t="n">
-        <v>12236.8</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>9254.2</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>26.449</v>
+        <v>33.365</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>17.619</v>
+        <v>14.947</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7777,28 +7777,28 @@
         <v>221</v>
       </c>
       <c r="D183" t="n">
-        <v>2543.8</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>152.5</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>12001.7</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>39813.6</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>3.379</v>
+        <v>3.321</v>
       </c>
       <c r="I183" t="n">
-        <v>0.193</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>28.68</v>
+        <v>38.181</v>
       </c>
       <c r="K183" t="n">
-        <v>83.312</v>
+        <v>81.036</v>
       </c>
     </row>
     <row r="184">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>290.6</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>37818.9</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7830,10 +7830,10 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0.599</v>
+        <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>75.422</v>
+        <v>98.616</v>
       </c>
     </row>
     <row r="185">
@@ -7853,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>152.5</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>20914.3</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>40.822</v>
+        <v>50.272</v>
       </c>
     </row>
     <row r="186">
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>981.7</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>44328.5</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1.777</v>
+        <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>65.363</v>
+        <v>60.313</v>
       </c>
     </row>
     <row r="187">
@@ -7917,28 +7917,28 @@
         <v>225</v>
       </c>
       <c r="D187" t="n">
-        <v>2741.4</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>228.4</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>30321.8</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>42311.8</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>4.006</v>
+        <v>2.648</v>
       </c>
       <c r="I187" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>49.497</v>
+        <v>59.946</v>
       </c>
       <c r="K187" t="n">
-        <v>53.015</v>
+        <v>45.353</v>
       </c>
     </row>
     <row r="188">
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>959.6</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>142902.4</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0.658</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>82.293</v>
+        <v>85.539</v>
       </c>
     </row>
     <row r="189">
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>338.1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>205059.1</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>81.149</v>
+        <v>81.988</v>
       </c>
     </row>
     <row r="190">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>66356.9</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>35.997</v>
+        <v>42.203</v>
       </c>
     </row>
     <row r="191">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>204705.4</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>159.605</v>
+        <v>168.386</v>
       </c>
     </row>
     <row r="192">
@@ -8098,10 +8098,10 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>100454.5</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>39.832</v>
+        <v>40.802</v>
       </c>
     </row>
     <row r="193">
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>126082.7</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>82.848</v>
+        <v>82.554</v>
       </c>
     </row>
     <row r="194">
@@ -8168,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>96068.4</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8180,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>48.991</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="195">
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>16789.7</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>31.669</v>
+        <v>38.855</v>
       </c>
     </row>
     <row r="196">
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>41622.1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>73.397</v>
+        <v>83.589</v>
       </c>
     </row>
     <row r="197">
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>20743.7</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>49.48</v>
+        <v>38.665</v>
       </c>
     </row>
     <row r="198">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>5516.5</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>5.237</v>
+        <v>12.952</v>
       </c>
     </row>
     <row r="199">
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>14838.6</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>24.978</v>
+        <v>31.233</v>
       </c>
     </row>
     <row r="200">
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>22355</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>51.068</v>
+        <v>52.748</v>
       </c>
     </row>
     <row r="201">
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>30955.4</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>39.335</v>
+        <v>46.602</v>
       </c>
     </row>
     <row r="202">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>38421.3</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>42.92</v>
+        <v>49.957</v>
       </c>
     </row>
     <row r="203">
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>31255</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>65.919</v>
+        <v>81.464</v>
       </c>
     </row>
     <row r="204">
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>28908.7</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>57.445</v>
+        <v>66.738</v>
       </c>
     </row>
     <row r="205">
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>31758.6</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>59.328</v>
+        <v>63.038</v>
       </c>
     </row>
     <row r="206">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>10775.3</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>19.947</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="207">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>17759.2</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>32.441</v>
+        <v>28.131</v>
       </c>
     </row>
     <row r="208">
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>29084.5</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>51.381</v>
+        <v>51.182</v>
       </c>
     </row>
     <row r="209">
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>24233.6</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>55.968</v>
+        <v>63.179</v>
       </c>
     </row>
     <row r="210">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>47156</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>39.395</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="211">
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>47097.4</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>77.962</v>
+        <v>75.041</v>
       </c>
     </row>
     <row r="212">
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>30096.8</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>55.992</v>
+        <v>62.202</v>
       </c>
     </row>
     <row r="213">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>24729.2</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>39.228</v>
+        <v>38.818</v>
       </c>
     </row>
     <row r="214">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>46870.5</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>43.879</v>
+        <v>49.149</v>
       </c>
     </row>
     <row r="215">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>18785.4</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>30.043</v>
+        <v>34.665</v>
       </c>
     </row>
     <row r="216">
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>151226.5</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>71.946</v>
+        <v>76.624</v>
       </c>
     </row>
     <row r="217">
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>71443.1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>32.869</v>
+        <v>33.546</v>
       </c>
     </row>
     <row r="218">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>131074.7</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>104.791</v>
+        <v>106.613</v>
       </c>
     </row>
     <row r="219">
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>26442.4</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>38.446</v>
+        <v>36.035</v>
       </c>
     </row>
     <row r="220">
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>62232.8</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>68.336</v>
+        <v>68.723</v>
       </c>
     </row>
     <row r="221">
@@ -9113,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1416</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>23980.7</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9125,10 +9125,10 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>3.039</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>34.206</v>
+        <v>30.923</v>
       </c>
     </row>
     <row r="222">
@@ -9142,28 +9142,28 @@
         <v>264</v>
       </c>
       <c r="D222" t="n">
-        <v>1036.9</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>22202.6</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>2708.1</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>3.017</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>52.325</v>
+        <v>31.293</v>
       </c>
       <c r="K222" t="n">
-        <v>4.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -9183,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>232.2</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>12479.3</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9195,10 +9195,10 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>21.44</v>
+        <v>18.723</v>
       </c>
     </row>
     <row r="224">
@@ -9218,10 +9218,10 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>505.7</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>12464.2</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9230,10 +9230,10 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>1.091</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>26.52</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="225">
@@ -9253,10 +9253,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>2815</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>21894.5</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9265,10 +9265,10 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>5.26</v>
+        <v>7.065</v>
       </c>
       <c r="K225" t="n">
-        <v>49.525</v>
+        <v>50.044</v>
       </c>
     </row>
     <row r="226">
@@ -9288,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>784.2</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>2836</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9300,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>5.143</v>
+        <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>11.803</v>
+        <v>27.257</v>
       </c>
     </row>
     <row r="227">
@@ -9323,10 +9323,10 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>25423.3</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>1.059</v>
+        <v>0</v>
       </c>
       <c r="K227" t="n">
-        <v>48.09</v>
+        <v>60.975</v>
       </c>
     </row>
     <row r="228">
@@ -9358,10 +9358,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>21078.7</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>4380.4</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9370,10 +9370,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>46.784</v>
+        <v>63.825</v>
       </c>
       <c r="K228" t="n">
-        <v>4.969</v>
+        <v>6.234</v>
       </c>
     </row>
     <row r="229">
@@ -9387,28 +9387,28 @@
         <v>271</v>
       </c>
       <c r="D229" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>28186.4</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>12079.9</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>1.376</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>55.092</v>
+        <v>35.688</v>
       </c>
       <c r="K229" t="n">
-        <v>12.628</v>
+        <v>13.866</v>
       </c>
     </row>
     <row r="230">
@@ -9422,28 +9422,28 @@
         <v>272</v>
       </c>
       <c r="D230" t="n">
-        <v>5524.7</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>20023.3</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>784.2</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>20.416</v>
+        <v>23.96</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>56.191</v>
+        <v>88.425</v>
       </c>
       <c r="K230" t="n">
-        <v>2.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -9463,10 +9463,10 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>1756.4</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>5751.8</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>4.458</v>
+        <v>19.338</v>
       </c>
       <c r="K231" t="n">
-        <v>12.654</v>
+        <v>9.411</v>
       </c>
     </row>
     <row r="232">
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>19788.9</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9510,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>43.938</v>
+        <v>65.674</v>
       </c>
     </row>
     <row r="233">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>9638.4</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>13.356</v>
+        <v>29.479</v>
       </c>
     </row>
     <row r="234">
@@ -9568,10 +9568,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>5536.1</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>3825.7</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9580,10 +9580,10 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>13.246</v>
+        <v>20.23</v>
       </c>
       <c r="K234" t="n">
-        <v>7.686</v>
+        <v>3.688</v>
       </c>
     </row>
     <row r="235">
@@ -9603,10 +9603,10 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>7470.2</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>2950.6</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9615,10 +9615,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>17.606</v>
+        <v>14.849</v>
       </c>
       <c r="K235" t="n">
-        <v>8.734</v>
+        <v>6.086</v>
       </c>
     </row>
     <row r="236">
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1164.3</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>36066.9</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>1.885</v>
+        <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>60.038</v>
+        <v>64.668</v>
       </c>
     </row>
     <row r="237">
@@ -9673,10 +9673,10 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>6581.2</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>5438.7</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9685,10 +9685,10 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>13.163</v>
+        <v>36.372</v>
       </c>
       <c r="K237" t="n">
-        <v>13.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -9708,10 +9708,10 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>2620.1</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>24247.4</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>5.204</v>
+        <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>57.949</v>
+        <v>56.013</v>
       </c>
     </row>
     <row r="239">
@@ -9737,25 +9737,25 @@
         <v>282</v>
       </c>
       <c r="D239" t="n">
-        <v>62170</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>94.43</v>
+        <v>96.542</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -9772,25 +9772,25 @@
         <v>283</v>
       </c>
       <c r="D240" t="n">
-        <v>21161.9</v>
+        <v>0</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>7337.3</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>34.789</v>
+        <v>48.229</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>13.374</v>
+        <v>4.707</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -9807,25 +9807,25 @@
         <v>284</v>
       </c>
       <c r="D241" t="n">
-        <v>41798.3</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>2285.3</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>56.575</v>
+        <v>56.074</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>5.224</v>
+        <v>0</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -9842,25 +9842,25 @@
         <v>285</v>
       </c>
       <c r="D242" t="n">
-        <v>22797.7</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>8747.6</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>57.229</v>
+        <v>65.161</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>18.944</v>
+        <v>0</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>286</v>
       </c>
       <c r="D243" t="n">
-        <v>26610.8</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>421.3</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>38.522</v>
+        <v>37.226</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0.818</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -9912,25 +9912,25 @@
         <v>287</v>
       </c>
       <c r="D244" t="n">
-        <v>40688.1</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1742.4</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>56.257</v>
+        <v>70.451</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>3.964</v>
+        <v>0</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -9947,25 +9947,25 @@
         <v>288</v>
       </c>
       <c r="D245" t="n">
-        <v>32123.3</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>292.8</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>74.185</v>
+        <v>73.733</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>0.628</v>
+        <v>0</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -9982,25 +9982,25 @@
         <v>289</v>
       </c>
       <c r="D246" t="n">
-        <v>34775</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>5265.8</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>80.813</v>
+        <v>82.039</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -10017,25 +10017,25 @@
         <v>290</v>
       </c>
       <c r="D247" t="n">
-        <v>15472.7</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>164.3</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>21.773</v>
+        <v>23.633</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -10052,25 +10052,25 @@
         <v>292</v>
       </c>
       <c r="D248" t="n">
-        <v>17098.9</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>1133.6</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>111.5</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>34.195</v>
+        <v>55.935</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>1.052</v>
+        <v>0</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -10087,19 +10087,19 @@
         <v>293</v>
       </c>
       <c r="D249" t="n">
-        <v>4428.1</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>219.6</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>3.336</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -10122,25 +10122,25 @@
         <v>294</v>
       </c>
       <c r="D250" t="n">
-        <v>27213.6</v>
+        <v>0</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>42.525</v>
+        <v>48.217</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>0.652</v>
+        <v>0</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>295</v>
       </c>
       <c r="D251" t="n">
-        <v>29486.5</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>181.1</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>37.9</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>118.3</v>
+        <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>87.481</v>
+        <v>134.245</v>
       </c>
       <c r="I251" t="n">
-        <v>0.392</v>
+        <v>0</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -10192,25 +10192,25 @@
         <v>296</v>
       </c>
       <c r="D252" t="n">
-        <v>20096.6</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>253.1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>32.117</v>
+        <v>27.889</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>0.509</v>
+        <v>0</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>297</v>
       </c>
       <c r="D253" t="n">
-        <v>28081.3</v>
+        <v>0</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>42.489</v>
+        <v>40.232</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -10262,25 +10262,25 @@
         <v>298</v>
       </c>
       <c r="D254" t="n">
-        <v>42210</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1669.4</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>105.136</v>
+        <v>104.886</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -10297,19 +10297,19 @@
         <v>299</v>
       </c>
       <c r="D255" t="n">
-        <v>2829.3</v>
+        <v>0</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -10332,25 +10332,25 @@
         <v>300</v>
       </c>
       <c r="D256" t="n">
-        <v>6169.7</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>1959.7</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>3.905</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>0.664</v>
+        <v>0</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -10367,25 +10367,25 @@
         <v>301</v>
       </c>
       <c r="D257" t="n">
-        <v>25718.4</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>1754.5</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>44.243</v>
+        <v>61.647</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>5.156</v>
+        <v>0</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -10402,25 +10402,25 @@
         <v>302</v>
       </c>
       <c r="D258" t="n">
-        <v>52082.5</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>468.8</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>73.682</v>
+        <v>77.406</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>0.508</v>
+        <v>0</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -10437,25 +10437,25 @@
         <v>303</v>
       </c>
       <c r="D259" t="n">
-        <v>42265.8</v>
+        <v>0</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>4224.6</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>66.7</v>
+        <v>75.595</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>7.501</v>
+        <v>6.171</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -10472,25 +10472,25 @@
         <v>304</v>
       </c>
       <c r="D260" t="n">
-        <v>44072.7</v>
+        <v>0</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>1385.2</v>
+        <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>50.6</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>50.118</v>
+        <v>62.371</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>2.244</v>
+        <v>0</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>305</v>
       </c>
       <c r="D261" t="n">
-        <v>43594.7</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>2370.7</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>60.149</v>
+        <v>71.83</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>6.012</v>
+        <v>0</v>
       </c>
       <c r="K261" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_ghana.xlsx
+++ b/public/data/soil/soil_table_ghana.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1442,13 +1442,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22294.3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8150.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44012</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4900.7</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6237.1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>30621</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13202.8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>29111.9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1709.1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>45346.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3083.8</v>
       </c>
       <c r="H6" t="n">
         <v>5.446</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21265.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9772.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9843.6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2900.4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8996.1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>13489.5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15392.6</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17632.8</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>17295.5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>15394</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1862,13 +1862,13 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2795.4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>36591.3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2276.4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>36701.2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1932,13 +1932,13 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2773</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>25041.3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7055.6</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>17491.1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>24753.9</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1919.6</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9338.5</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>13332.9</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>11678.8</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>37578.3</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>8513.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2142,13 +2142,13 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>11465.5</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>25483.3</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1493.3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1493.3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>7085</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>56336</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>19061.9</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>10079.6</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19129.9</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>30821.5</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3545.9</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>25419.1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18874.9</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>25280.7</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>33474.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>40679.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>14577.9</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>951.5</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>12340.6</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>951.5</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>41786</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7511.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>9633.8</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3758.5</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>71</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2276.4</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25046.5</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>21279.1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>43663.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1493.3</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2545.5</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>20387.8</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>30081.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39642.6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15251.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>8913</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>34806</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>23818.7</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1488.9</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3163,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1023.8</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>33327.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>24128.6</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>7752.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>46666.7</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>516.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>34495.6</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3343.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3303,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>13742.7</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>49136.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>14337.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3961.9</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1150.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2908.3</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>29526.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>143.6</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>19336.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>16884.1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>15376.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>15242.1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1522.1</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2956.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3583,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>23247.9</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>12715.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>25012.5</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3647,13 +3647,13 @@
         <v>97</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>7235.6</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>50286.6</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         <v>98</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1661.8</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>26290.6</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>99</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>17456.2</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>8003.1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2909.2</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>19707</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>101</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1244.6</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>15047.3</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>4374.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>102</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>2204.5</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>30753.3</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>4296.5</v>
       </c>
       <c r="H70" t="n">
         <v>2.416</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>44922.1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>33489.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1797.3</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>48943.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>16861.7</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>25387.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3962,13 +3962,13 @@
         <v>107</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>6776.8</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>19979.7</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>20587.5</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -4032,13 +4032,13 @@
         <v>109</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>5077.4</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>21276.2</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>33082.8</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -4102,13 +4102,13 @@
         <v>111</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>13425.8</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>21625</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>112</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>16534.6</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -4172,13 +4172,13 @@
         <v>113</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>31918.8</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>6226.2</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4207,13 +4207,13 @@
         <v>114</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>41047.8</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>11040</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>5648.2</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>14477</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4283,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>25010</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>5271.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>117</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>7349.6</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>4693.6</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>15760.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>23184</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2554.6</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>9427.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>13201.9</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>18366</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>22881.5</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>123</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>30240.6</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>20560.2</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4557,13 +4557,13 @@
         <v>124</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>3732.5</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>27036.7</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         <v>125</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>49647.9</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2192.9</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>126</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>29343.4</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4662,13 +4662,13 @@
         <v>127</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>16996.1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>5191.5</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4697,13 +4697,13 @@
         <v>128</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>36405.9</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>6765.7</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>13626.2</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4767,13 +4767,13 @@
         <v>131</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2303.3</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>18237</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4802,13 +4802,13 @@
         <v>132</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>17846.7</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2596.9</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -4843,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>15295.4</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2443.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4872,16 +4872,16 @@
         <v>134</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>2849.5</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>12951.5</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>5959.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4907,13 +4907,13 @@
         <v>135</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>13399.8</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>11572.8</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -4942,13 +4942,13 @@
         <v>136</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>24262.6</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2479.9</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>4773.3</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>27145.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -5012,13 +5012,13 @@
         <v>138</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>25052.5</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>5538.2</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -5047,13 +5047,13 @@
         <v>139</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>21133.6</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>4532.3</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -5082,13 +5082,13 @@
         <v>140</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>8924.9</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>24497.3</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -5117,13 +5117,13 @@
         <v>141</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>7489.9</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2414.5</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -5152,13 +5152,13 @@
         <v>142</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>12701</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>8115.8</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -5187,13 +5187,13 @@
         <v>143</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>17712.5</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>2596.9</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>144</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>16617.9</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5257,16 +5257,16 @@
         <v>145</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2208.2</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>42463.4</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1380.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5292,13 +5292,13 @@
         <v>146</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>2208.2</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>21096.7</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -5327,13 +5327,13 @@
         <v>147</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>28615.6</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1776.9</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>466.9</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>34056.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>22576.5</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>51516.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5432,16 +5432,16 @@
         <v>150</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>2160.5</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>25251.5</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>7533.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5467,16 +5467,16 @@
         <v>151</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>6138</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>24454.8</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>4442.3</v>
       </c>
       <c r="H117" t="n">
         <v>4.889</v>
@@ -5502,13 +5502,13 @@
         <v>152</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>15509.7</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>8946.9</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -5543,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>7572.8</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>13517.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>9499.5</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>3906.2</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>9543</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>18786.3</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>17197.7</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>34716.8</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -5782,13 +5782,13 @@
         <v>160</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>4219.9</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>15494.7</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5817,13 +5817,13 @@
         <v>161</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>20552.6</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>6143.4</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5858,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>40344.8</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>7518.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2055.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1060.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>199.5</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2525.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6383,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>2528.8</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2525.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>4773.6</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>7091.3</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>5449.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>973.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3790</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>15348.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>199.5</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>4210.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>69306.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>22521.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>79003</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>20971.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>81443.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>30291.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>40894.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>44320.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>17525.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>37398.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>36244.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>22914</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>40812.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>33078.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>18505</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>12091.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>35574.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>24119.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7538,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1626.2</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>22382.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>24094.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>24591.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>25011.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7672,16 +7672,16 @@
         <v>218</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>2944.8</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>11485</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2642.3</v>
       </c>
       <c r="H180" t="n">
         <v>22.911</v>
@@ -7707,13 +7707,13 @@
         <v>219</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>7704.3</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>5536.2</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -7742,13 +7742,13 @@
         <v>220</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>8358.9</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>2892.9</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -7777,16 +7777,16 @@
         <v>221</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>677.4</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>7396.4</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>23435</v>
       </c>
       <c r="H183" t="n">
         <v>3.321</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>18750.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>14862.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>17943.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7917,16 +7917,16 @@
         <v>225</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1398.9</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>22446.1</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>21872.1</v>
       </c>
       <c r="H187" t="n">
         <v>2.648</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>12703.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>8949.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>120.9</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>3681</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>22728.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>10778.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>32583.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>37336.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>71918.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>29714.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>11570.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>34483.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>37965.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>37876.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>39049.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>40025</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>40162.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>62980.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>34173.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>30626.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>62967.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>47284</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>42917.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>64409.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>53179.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>62075.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>64043.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>36305.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>53510.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>41595.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>72931.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>44596.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>73456.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9113,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>397.7</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>4730</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9148,10 +9148,10 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>15755.7</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>699.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>11298.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>19141.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9253,10 +9253,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>588.3</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>9681.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>694.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>4762.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9358,10 +9358,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>5764.6</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>639.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9393,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>12936</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>5114</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9422,13 +9422,13 @@
         <v>272</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>2449.8</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>18048.9</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -9463,10 +9463,10 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>2848.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>16558.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>19943.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9568,10 +9568,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>4754.8</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9603,10 +9603,10 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>6433.3</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>1366.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>12136.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9673,10 +9673,10 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>2480.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9708,10 +9708,10 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1047.2</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>5991.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>282</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>162724.4</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -9772,13 +9772,13 @@
         <v>283</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>46670</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>3896.1</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>284</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>83773.8</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -9842,7 +9842,7 @@
         <v>285</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>61933.8</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>286</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>81944.9</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>287</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>92543</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         <v>288</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>74183.7</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>289</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>91872.5</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>290</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>27647.5</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>292</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>19170.5</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -10087,7 +10087,7 @@
         <v>293</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>4841.8</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -10122,7 +10122,7 @@
         <v>294</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>45220</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>295</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>33861.2</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -10192,7 +10192,7 @@
         <v>296</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>39458</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>297</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>56846.1</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>298</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>119966.1</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>299</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>2337.8</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         <v>300</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>3374.7</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>798.6</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>301</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>54885.8</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>302</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>149963.6</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>303</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>93704.1</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>6765.7</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>304</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>108560.9</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>305</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>92735.9</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
